--- a/data/trans_camb/CoTrAQ_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/CoTrAQ_R2-Habitat-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.686780621093003</v>
+        <v>4.580489823493249</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.879366790331629</v>
+        <v>7.360785843455449</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.07642046475436</v>
+        <v>8.345673643221426</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.74841898592853</v>
+        <v>18.55060484390385</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>25.51293641948952</v>
+        <v>24.98924586636276</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.41404668804748</v>
+        <v>19.05069257822583</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.3063618795716844</v>
+        <v>0.2969156231526474</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.3822811278357636</v>
+        <v>0.4174545175906887</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.5057397499671907</v>
+        <v>0.5370254148769964</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.085913632622699</v>
+        <v>2.047056796526256</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.926147603303471</v>
+        <v>2.896209856814797</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.921580898550778</v>
+        <v>1.939739613054365</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.666349769774593</v>
+        <v>1.781573027923755</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.330831226235218</v>
+        <v>1.122806135499185</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.607524660968829</v>
+        <v>3.183406721813361</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.74015571763112</v>
+        <v>12.94171528941243</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.22182992963825</v>
+        <v>15.89450032655568</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.21621164558669</v>
+        <v>12.14560028676475</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.08163857525773738</v>
+        <v>0.08817958205129982</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.09054748417443421</v>
+        <v>0.03828794168243105</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2053728265419694</v>
+        <v>0.1888678957812066</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.047572781501922</v>
+        <v>1.08322686151822</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.266238049298168</v>
+        <v>1.254695817001019</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.9304730755817936</v>
+        <v>0.9241541028076374</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>13.19690280431521</v>
+        <v>13.12231881495757</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.023508858475981</v>
+        <v>7.822813008464492</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14.1451238350783</v>
+        <v>13.83494751246125</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>27.00235795944955</v>
+        <v>27.11612821524412</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>24.33769021549153</v>
+        <v>24.57866532256741</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24.34065453962382</v>
+        <v>24.00755428737667</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.7534356357291295</v>
+        <v>0.7567215477302037</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.3447920045720846</v>
+        <v>0.3385961669181845</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.7558974759605601</v>
+        <v>0.7590187757911342</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.543952634323155</v>
+        <v>2.512555355444234</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.734164848550926</v>
+        <v>1.737092533003806</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.908248813784447</v>
+        <v>1.818570743656139</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5422144729448064</v>
+        <v>0.4973652884531057</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7283634077240022</v>
+        <v>0.3243821345130958</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.686491304952382</v>
+        <v>2.619519152631924</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.40663384470272</v>
+        <v>11.07608125894093</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.29666889438759</v>
+        <v>13.92898531920291</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.15537120396557</v>
+        <v>10.85047774732456</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.03697828186582416</v>
+        <v>0.02831426177926548</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.02875636387334642</v>
+        <v>-0.004842475751391644</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1631722192856204</v>
+        <v>0.1534793717085017</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.036972118525379</v>
+        <v>1.044459709414249</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9435657214992125</v>
+        <v>0.8839839814717708</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8892830326352253</v>
+        <v>0.8180038958616974</v>
       </c>
     </row>
     <row r="28">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>7.915251602248803</v>
+        <v>7.683050980165705</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.026861623366109</v>
+        <v>7.78138798489357</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8.868844404824374</v>
+        <v>9.268507103027888</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>14.10549117695863</v>
+        <v>13.8580813288632</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>15.9047547219738</v>
+        <v>15.6206305499603</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13.92540152392031</v>
+        <v>14.03471002900525</v>
       </c>
     </row>
     <row r="31">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.5473338494392006</v>
+        <v>0.5059835671267424</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.4278655457596545</v>
+        <v>0.4066640551690561</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5493681057105346</v>
+        <v>0.5790090161407263</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.187255290312587</v>
+        <v>1.145568440621801</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.078893959146785</v>
+        <v>1.03198705221629</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.027749974657057</v>
+        <v>1.028667151675808</v>
       </c>
     </row>
     <row r="34">
